--- a/fastqFiles/fastq_2651.xlsx
+++ b/fastqFiles/fastq_2651.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4E61ED-AEE0-EC46-8FE1-40FB4EE7DD2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="53">
   <si>
     <t>libraryDate</t>
   </si>
@@ -37,9 +43,6 @@
     <t>01.26.18</t>
   </si>
   <si>
-    <t>Retrofitted_2651</t>
-  </si>
-  <si>
     <t>sequence/run_2651_samples/Brent_1_GTAC_1_TGAGGTTATC_S2_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -170,13 +173,19 @@
   </si>
   <si>
     <t>sequence/run_2651_samples/Brent_44_GTAC_44_AACGGAGATC_S45_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +248,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -285,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,9 +334,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,6 +386,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,14 +579,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,12 +608,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -567,18 +622,18 @@
         <v>2651</v>
       </c>
       <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -587,18 +642,18 @@
         <v>2651</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -607,18 +662,18 @@
         <v>2651</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -627,18 +682,18 @@
         <v>2651</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -647,38 +702,38 @@
         <v>2651</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>2651</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>2651</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -687,18 +742,18 @@
         <v>2651</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -707,18 +762,18 @@
         <v>2651</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -727,18 +782,18 @@
         <v>2651</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -747,18 +802,18 @@
         <v>2651</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -767,18 +822,18 @@
         <v>2651</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -787,18 +842,18 @@
         <v>2651</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -807,18 +862,18 @@
         <v>2651</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -827,18 +882,18 @@
         <v>2651</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -847,18 +902,18 @@
         <v>2651</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -867,18 +922,18 @@
         <v>2651</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -887,18 +942,18 @@
         <v>2651</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -907,18 +962,18 @@
         <v>2651</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -927,18 +982,18 @@
         <v>2651</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -947,18 +1002,18 @@
         <v>2651</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -967,18 +1022,18 @@
         <v>2651</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -987,18 +1042,18 @@
         <v>2651</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1007,18 +1062,18 @@
         <v>2651</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1027,18 +1082,18 @@
         <v>2651</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1047,18 +1102,18 @@
         <v>2651</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1067,18 +1122,18 @@
         <v>2651</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1087,18 +1142,18 @@
         <v>2651</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1107,18 +1162,18 @@
         <v>2651</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1127,18 +1182,18 @@
         <v>2651</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1147,18 +1202,18 @@
         <v>2651</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1167,18 +1222,18 @@
         <v>2651</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1187,18 +1242,18 @@
         <v>2651</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1207,18 +1262,18 @@
         <v>2651</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1227,18 +1282,18 @@
         <v>2651</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1247,18 +1302,18 @@
         <v>2651</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1267,18 +1322,18 @@
         <v>2651</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1287,18 +1342,18 @@
         <v>2651</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1307,18 +1362,18 @@
         <v>2651</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1327,18 +1382,18 @@
         <v>2651</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1347,18 +1402,18 @@
         <v>2651</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1367,18 +1422,18 @@
         <v>2651</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1387,18 +1442,18 @@
         <v>2651</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1407,18 +1462,18 @@
         <v>2651</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1427,10 +1482,10 @@
         <v>2651</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_2651.xlsx
+++ b/fastqFiles/fastq_2651.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">

--- a/fastqFiles/fastq_2651.xlsx
+++ b/fastqFiles/fastq_2651.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="58">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -76,6 +76,9 @@
     <t xml:space="preserve">Brent_6_GTAC_6_TACTCTAATC_S7_R1_001.fastq.gz</t>
   </si>
   <si>
+    <t xml:space="preserve">[4]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brent_7_GTAC_7_AGACTGAATC_S8_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">Brent_16_GTAC_16_CGGTGGCATC_S17_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[12]</t>
   </si>
   <si>
     <t xml:space="preserve">Brent_17_GTAC_17_ACTGTCGATC_S18_R1_001.fastq.gz</t>
@@ -288,12 +294,14 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V7" activeCellId="0" sqref="V7"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="51.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -447,8 +455,8 @@
       <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>4</v>
+      <c r="I7" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,7 +476,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -488,7 +496,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -508,7 +516,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,7 +536,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,7 +576,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,7 +596,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -628,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,13 +656,13 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="0" t="n">
-        <v>12</v>
+      <c r="I17" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -794,10 +802,10 @@
         <v>11</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>9</v>
       </c>
@@ -814,13 +822,13 @@
         <v>11</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="0" t="n">
-        <v>4</v>
+      <c r="I25" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,7 +848,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -860,7 +868,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,7 +888,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,7 +928,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -940,7 +948,7 @@
         <v>11</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -960,10 +968,10 @@
         <v>11</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>9</v>
       </c>
@@ -980,13 +988,13 @@
         <v>11</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I33" s="0" t="n">
-        <v>4</v>
+      <c r="I33" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,7 +1014,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1026,7 +1034,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,7 +1054,7 @@
         <v>11</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,7 +1074,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,10 +1094,10 @@
         <v>11</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>9</v>
       </c>
@@ -1106,13 +1114,13 @@
         <v>11</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I39" s="0" t="n">
-        <v>12</v>
+      <c r="I39" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1132,10 +1140,10 @@
         <v>11</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>9</v>
       </c>
@@ -1152,16 +1160,16 @@
         <v>11</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I41" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I41" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>9</v>
       </c>
@@ -1178,13 +1186,13 @@
         <v>11</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I42" s="0" t="n">
-        <v>4</v>
+      <c r="I42" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1204,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,7 +1252,7 @@
         <v>11</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_2651.xlsx
+++ b/fastqFiles/fastq_2651.xlsx
@@ -294,7 +294,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -538,6 +538,9 @@
       <c r="F11" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -683,6 +686,9 @@
       </c>
       <c r="F18" s="0" t="s">
         <v>30</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
